--- a/data/case1/20/Q_device_5.xlsx
+++ b/data/case1/20/Q_device_5.xlsx
@@ -57,31 +57,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.048472191586442982</v>
+        <v>0.0054581959047847496</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.048472191652331756</v>
+        <v>-0.0054581959500206263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.050634859955856711</v>
+        <v>-0.031817198976671714</v>
       </c>
       <c r="B2" s="0">
-        <v>0.050634859909741509</v>
+        <v>0.03181719895283288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0057805261861383324</v>
+        <v>0.065390397539566478</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0057805262580233044</v>
+        <v>-0.065390397564560651</v>
       </c>
     </row>
     <row r="4">
